--- a/TestData/ddt.xlsx
+++ b/TestData/ddt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -42,6 +42,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,12 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +428,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -463,12 +470,12 @@
           <t>Admin123</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -485,12 +492,12 @@
           <t>admin123</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -507,12 +514,12 @@
           <t>addmin123</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -529,12 +536,12 @@
           <t>Admin123</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -551,12 +558,12 @@
           <t>admin123</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -573,12 +580,12 @@
           <t>efsef</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -586,5 +593,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>